--- a/Documentation/User_story.xlsx
+++ b/Documentation/User_story.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deva_\Desktop\YouFormDoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub victor-dva\you-form-doc\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485EACCE-7DCD-43FC-82F5-B076ABC2D0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3782026B-7334-4B24-83B5-575367C20511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0D02B6C3-35DB-4657-970B-B42564126393}"/>
+    <workbookView xWindow="28680" yWindow="-1290" windowWidth="29040" windowHeight="15720" xr2:uid="{0D02B6C3-35DB-4657-970B-B42564126393}"/>
   </bookViews>
   <sheets>
     <sheet name="User stories" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
   <si>
     <t>Story points</t>
   </si>
@@ -204,6 +203,24 @@
   </si>
   <si>
     <t>Tache_7.0.1 : créer une bdd Firebase</t>
+  </si>
+  <si>
+    <t>Technical story_8.0.0 : CRUD Projet</t>
+  </si>
+  <si>
+    <t>Tache_8.0.1 : créer un modèle "Projet"</t>
+  </si>
+  <si>
+    <t>Tache_8.0.2 : implémenter les méthodes CRUD du modèle "Projet"</t>
+  </si>
+  <si>
+    <t>Technical story_9.0.0 : Logs</t>
+  </si>
+  <si>
+    <t>Tache_9.0.1 : ajouter des logs à chaque opération CRUD</t>
+  </si>
+  <si>
+    <t>Tache_9.0.2 : ajouter des logs de navigation</t>
   </si>
 </sst>
 </file>
@@ -280,7 +297,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="33">
     <dxf>
       <fill>
         <patternFill>
@@ -291,6 +308,34 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
@@ -333,6 +378,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
@@ -340,6 +392,27 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -361,77 +434,42 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -481,13 +519,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -502,8 +533,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCCCFF"/>
       <color rgb="FFFF7C80"/>
-      <color rgb="FFCCCCFF"/>
       <color rgb="FFCC99FF"/>
     </mruColors>
   </colors>
@@ -815,10 +846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BBA281-0ECC-4D67-B630-8EBDD4076F73}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,11 +883,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -873,16 +904,18 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f>A2+1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -899,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -916,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -954,12 +987,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <f>A4+1</f>
-        <v>3</v>
-      </c>
       <c r="B9" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -976,7 +1008,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -993,13 +1025,13 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <f>A9+1</f>
-        <v>4</v>
+        <f xml:space="preserve"> A47 + 1</f>
+        <v>2</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
@@ -1059,7 +1091,7 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f>A12+1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>12</v>
@@ -1119,7 +1151,7 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f>A16+1</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>27</v>
@@ -1145,7 +1177,7 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f xml:space="preserve"> A20+1</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>30</v>
@@ -1256,7 +1288,7 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f>A22 + 1</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>37</v>
@@ -1316,7 +1348,7 @@
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f xml:space="preserve"> A29 + 1</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>46</v>
@@ -1393,7 +1425,7 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f xml:space="preserve"> A33 + 1</f>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>45</v>
@@ -1436,7 +1468,7 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f xml:space="preserve"> A38 + 1</f>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>49</v>
@@ -1477,12 +1509,11 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <f xml:space="preserve"> A9</f>
-        <v>3</v>
-      </c>
       <c r="B44" s="2" t="s">
         <v>52</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -1499,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -1516,45 +1547,104 @@
         <v>2</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>1</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <f xml:space="preserve"> A41+5</f>
+        <v>14</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A1048576">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="24" priority="6" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="between">
       <formula>1</formula>
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="11" operator="between">
       <formula>6</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="Tache">
+    <cfRule type="containsText" dxfId="21" priority="8" operator="containsText" text="Tache">
       <formula>NOT(ISERROR(SEARCH("Tache",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="Technical story">
+    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="Technical story">
       <formula>NOT(ISERROR(SEARCH("Technical story",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="User story">
+    <cfRule type="containsText" dxfId="19" priority="10" operator="containsText" text="User story">
       <formula>NOT(ISERROR(SEARCH("User story",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F1048576">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="Todo">
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="Todo">
       <formula>NOT(ISERROR(SEARCH("Todo",F2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",F2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="Validé">
+      <formula>NOT(ISERROR(SEARCH("Validé",F2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{3D0779EB-9E0D-46ED-89C1-D71869FA24B2}">
+          <x14:cfRule type="containsText" priority="16" operator="containsText" id="{3D0779EB-9E0D-46ED-89C1-D71869FA24B2}">
             <xm:f>NOT(ISERROR(SEARCH(Statut!$A$4,E1)))</xm:f>
             <xm:f>Statut!$A$4</xm:f>
             <x14:dxf>
@@ -1565,7 +1655,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{00DCAB57-507B-4E51-B67E-3E53D2A99461}">
+          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{00DCAB57-507B-4E51-B67E-3E53D2A99461}">
             <xm:f>NOT(ISERROR(SEARCH(Statut!$A$3,E1)))</xm:f>
             <xm:f>Statut!$A$3</xm:f>
             <x14:dxf>
@@ -1576,7 +1666,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{1385A3BD-607F-4729-8B21-59ECDC200CE9}">
+          <x14:cfRule type="containsText" priority="18" operator="containsText" id="{1385A3BD-607F-4729-8B21-59ECDC200CE9}">
             <xm:f>NOT(ISERROR(SEARCH(Statut!$A$2,E1)))</xm:f>
             <xm:f>Statut!$A$2</xm:f>
             <x14:dxf>
@@ -1587,7 +1677,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{DD196320-0A19-4994-BC45-32ADD9229AEE}">
+          <x14:cfRule type="containsText" priority="19" operator="containsText" id="{DD196320-0A19-4994-BC45-32ADD9229AEE}">
             <xm:f>NOT(ISERROR(SEARCH(Statut!$A$1,E1)))</xm:f>
             <xm:f>Statut!$A$1</xm:f>
             <x14:dxf>
@@ -1653,17 +1743,6 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="8" operator="containsText" id="{9EC93187-203C-40AE-9F1B-5E5886697058}">
-            <xm:f>NOT(ISERROR(SEARCH($A$1,A1)))</xm:f>
-            <xm:f>$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="2"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{865BFEE1-60FF-4729-9C87-B0C0454E73E7}">
             <xm:f>NOT(ISERROR(SEARCH($A$1,A1)))</xm:f>
             <xm:f>$A$1</xm:f>
             <x14:dxf>

--- a/Documentation/User_story.xlsx
+++ b/Documentation/User_story.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub victor-dva\you-form-doc\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3782026B-7334-4B24-83B5-575367C20511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BA4D27-77F5-434B-A9A4-D5F0190279D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1290" windowWidth="29040" windowHeight="15720" xr2:uid="{0D02B6C3-35DB-4657-970B-B42564126393}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
   <si>
     <t>Story points</t>
   </si>
@@ -848,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BBA281-0ECC-4D67-B630-8EBDD4076F73}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,13 +1557,16 @@
       <c r="B47" s="2" t="s">
         <v>55</v>
       </c>
+      <c r="F47" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>56</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -1571,7 +1574,7 @@
         <v>57</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">

--- a/Documentation/User_story.xlsx
+++ b/Documentation/User_story.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub victor-dva\you-form-doc\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87BA4D27-77F5-434B-A9A4-D5F0190279D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD50856-A5A0-4DE0-BEC3-8A6C7797AAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1290" windowWidth="29040" windowHeight="15720" xr2:uid="{0D02B6C3-35DB-4657-970B-B42564126393}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
   <si>
     <t>Story points</t>
   </si>
@@ -848,8 +848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BBA281-0ECC-4D67-B630-8EBDD4076F73}">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1029,12 +1029,11 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <f xml:space="preserve"> A47 + 1</f>
-        <v>2</v>
-      </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1051,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1068,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1085,13 +1084,13 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <f>A12+1</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>12</v>
@@ -1151,7 +1150,7 @@
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f>A16+1</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>27</v>
@@ -1177,7 +1176,7 @@
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f xml:space="preserve"> A20+1</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>30</v>
@@ -1288,7 +1287,7 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f>A22 + 1</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>37</v>
@@ -1348,7 +1347,7 @@
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f xml:space="preserve"> A29 + 1</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>46</v>
@@ -1425,7 +1424,7 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f xml:space="preserve"> A33 + 1</f>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>45</v>
@@ -1468,7 +1467,7 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f xml:space="preserve"> A38 + 1</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>49</v>
@@ -1551,9 +1550,6 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
-        <v>1</v>
-      </c>
       <c r="B47" s="2" t="s">
         <v>55</v>
       </c>
@@ -1580,7 +1576,7 @@
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f xml:space="preserve"> A41+5</f>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>58</v>

--- a/Documentation/User_story.xlsx
+++ b/Documentation/User_story.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub victor-dva\you-form-doc\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CD50856-A5A0-4DE0-BEC3-8A6C7797AAC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D643C8-C9E5-4DD1-BD69-3315624C273F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1290" windowWidth="29040" windowHeight="15720" xr2:uid="{0D02B6C3-35DB-4657-970B-B42564126393}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
   <si>
     <t>Story points</t>
   </si>
@@ -297,182 +297,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <fill>
         <patternFill>
@@ -526,6 +351,104 @@
       <fill>
         <patternFill>
           <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -849,7 +772,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,6 +1018,9 @@
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F16" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
@@ -1110,7 +1036,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1600,41 +1526,41 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A1048576">
-    <cfRule type="cellIs" dxfId="24" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="between">
       <formula>1</formula>
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="11" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="between">
       <formula>6</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="21" priority="8" operator="containsText" text="Tache">
+    <cfRule type="containsText" dxfId="18" priority="8" operator="containsText" text="Tache">
       <formula>NOT(ISERROR(SEARCH("Tache",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="9" operator="containsText" text="Technical story">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="Technical story">
       <formula>NOT(ISERROR(SEARCH("Technical story",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="10" operator="containsText" text="User story">
+    <cfRule type="containsText" dxfId="16" priority="10" operator="containsText" text="User story">
       <formula>NOT(ISERROR(SEARCH("User story",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F1048576">
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="Todo">
-      <formula>NOT(ISERROR(SEARCH("Todo",F2)))</formula>
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="Terminé">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Validé">
+      <formula>NOT(ISERROR(SEARCH("Validé",F2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Terminé">
       <formula>NOT(ISERROR(SEARCH("Terminé",F2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="Validé">
-      <formula>NOT(ISERROR(SEARCH("Validé",F2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="En cours">
-      <formula>NOT(ISERROR(SEARCH("En cours",F2)))</formula>
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Todo">
+      <formula>NOT(ISERROR(SEARCH("Todo",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documentation/User_story.xlsx
+++ b/Documentation/User_story.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub victor-dva\you-form-doc\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D643C8-C9E5-4DD1-BD69-3315624C273F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CAA5F4-11E4-4199-86CB-28C63D34C862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1290" windowWidth="29040" windowHeight="15720" xr2:uid="{0D02B6C3-35DB-4657-970B-B42564126393}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="61">
   <si>
     <t>Story points</t>
   </si>
@@ -772,7 +772,7 @@
   <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,15 +1011,11 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <f>A12+1</f>
-        <v>1</v>
-      </c>
       <c r="B16" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1053,7 +1049,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1070,16 +1066,19 @@
         <v>0</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <f>A16+1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>27</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -1096,13 +1095,13 @@
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <f xml:space="preserve"> A20+1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>30</v>
@@ -1213,7 +1212,7 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f>A22 + 1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>37</v>
@@ -1273,7 +1272,7 @@
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f xml:space="preserve"> A29 + 1</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>46</v>
@@ -1350,7 +1349,7 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f xml:space="preserve"> A33 + 1</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>45</v>
@@ -1393,7 +1392,7 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f xml:space="preserve"> A38 + 1</f>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>49</v>
@@ -1502,10 +1501,13 @@
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f xml:space="preserve"> A41+5</f>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>58</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -1513,7 +1515,7 @@
         <v>59</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">

--- a/Documentation/User_story.xlsx
+++ b/Documentation/User_story.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub victor-dva\you-form-doc\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CAA5F4-11E4-4199-86CB-28C63D34C862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C80DF0C-A30A-4BE9-820B-E55A87C534FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1290" windowWidth="29040" windowHeight="15720" xr2:uid="{0D02B6C3-35DB-4657-970B-B42564126393}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="64">
   <si>
     <t>Story points</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Priorité</t>
   </si>
   <si>
-    <t>Termps</t>
-  </si>
-  <si>
     <t>Complexite</t>
   </si>
   <si>
@@ -139,9 +136,6 @@
     <t>Tache_5.0.2 : créer un fieldset listant les boutons redirigeant pour chaque catégorie vers sa page dédiée</t>
   </si>
   <si>
-    <t>Tache_5.0.3 : créer un bouton "Supprimer le projet"</t>
-  </si>
-  <si>
     <t>Tache_5.0.4 : créer un bouton "Exigence" redirigeant vers la page dédiée aux exigences</t>
   </si>
   <si>
@@ -221,6 +215,21 @@
   </si>
   <si>
     <t>Tache_9.0.2 : ajouter des logs de navigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tache_5.0.3 : créer un bouton "Supprimer le projet" + implémenter une fonction supprimant le projet et rédirigeant à la page précédente </t>
+  </si>
+  <si>
+    <t>Temps</t>
+  </si>
+  <si>
+    <t>User story_5.0.0 : Documentation "Application Web"</t>
+  </si>
+  <si>
+    <t>Tache_5.0.1 : créer un bouton en icone sous forme de crayon pour chaque projet</t>
+  </si>
+  <si>
+    <t>Tache_5.0.2 : implémenter une fonction permettant de renommer le projet lorque le bouton de renommage est cliqué</t>
   </si>
 </sst>
 </file>
@@ -769,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BBA281-0ECC-4D67-B630-8EBDD4076F73}">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,13 +799,13 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
@@ -807,15 +816,15 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -827,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -835,15 +844,15 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -855,12 +864,12 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -872,12 +881,12 @@
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -889,12 +898,12 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -906,20 +915,20 @@
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -931,12 +940,12 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -948,20 +957,20 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -973,12 +982,12 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -990,12 +999,12 @@
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -1007,20 +1016,20 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -1032,12 +1041,12 @@
         <v>0</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -1049,41 +1058,37 @@
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <f>A16+1</f>
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -1095,21 +1100,20 @@
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <f xml:space="preserve"> A20+1</f>
-        <v>2</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -1121,12 +1125,12 @@
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -1138,12 +1142,12 @@
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -1155,12 +1159,12 @@
         <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
@@ -1172,12 +1176,12 @@
         <v>0</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
@@ -1189,12 +1193,12 @@
         <v>0</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
@@ -1206,21 +1210,21 @@
         <v>0</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <f>A22 + 1</f>
-        <v>3</v>
+        <f>A53 + 1</f>
+        <v>2</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
@@ -1232,12 +1236,12 @@
         <v>0</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
@@ -1249,12 +1253,12 @@
         <v>0</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -1266,21 +1270,21 @@
         <v>0</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f xml:space="preserve"> A29 + 1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -1292,12 +1296,12 @@
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -1309,12 +1313,12 @@
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
@@ -1326,12 +1330,12 @@
         <v>0</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
@@ -1343,21 +1347,21 @@
         <v>0</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f xml:space="preserve"> A33 + 1</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
@@ -1369,12 +1373,12 @@
         <v>2</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
@@ -1386,21 +1390,21 @@
         <v>2</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f xml:space="preserve"> A38 + 1</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -1412,12 +1416,12 @@
         <v>2</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -1429,20 +1433,20 @@
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B44" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
@@ -1454,12 +1458,12 @@
         <v>0</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
@@ -1471,12 +1475,12 @@
         <v>2</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>7</v>
@@ -1484,46 +1488,124 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B49" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>4</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f xml:space="preserve"> A41+5</f>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B51" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>1</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1645,22 +1727,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/User_story.xlsx
+++ b/Documentation/User_story.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub victor-dva\you-form-doc\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C80DF0C-A30A-4BE9-820B-E55A87C534FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F4AA9A-B4C9-4FD5-AB5D-13D93FB9C8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1290" windowWidth="29040" windowHeight="15720" xr2:uid="{0D02B6C3-35DB-4657-970B-B42564126393}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
   <si>
     <t>Story points</t>
   </si>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BBA281-0ECC-4D67-B630-8EBDD4076F73}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1573,6 +1573,9 @@
       <c r="B53" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="F53" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
@@ -1588,7 +1591,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -1605,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/User_story.xlsx
+++ b/Documentation/User_story.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub victor-dva\you-form-doc\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F4AA9A-B4C9-4FD5-AB5D-13D93FB9C8EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA57E75-2B42-4D10-82C2-C10C5A64EED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1290" windowWidth="29040" windowHeight="15720" xr2:uid="{0D02B6C3-35DB-4657-970B-B42564126393}"/>
   </bookViews>
@@ -223,13 +223,13 @@
     <t>Temps</t>
   </si>
   <si>
-    <t>User story_5.0.0 : Documentation "Application Web"</t>
-  </si>
-  <si>
     <t>Tache_5.0.1 : créer un bouton en icone sous forme de crayon pour chaque projet</t>
   </si>
   <si>
     <t>Tache_5.0.2 : implémenter une fonction permettant de renommer le projet lorque le bouton de renommage est cliqué</t>
+  </si>
+  <si>
+    <t>User story_5.0.0 : Documentation "Application Web" : renommer un projet</t>
   </si>
 </sst>
 </file>
@@ -781,7 +781,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1571,7 +1571,7 @@
         <v>1</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>7</v>
@@ -1579,7 +1579,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B54" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
@@ -1596,7 +1596,7 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B55" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>

--- a/Documentation/User_story.xlsx
+++ b/Documentation/User_story.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deva_\Desktop\YouFormDoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deva_\Desktop\YouFormDoc\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485EACCE-7DCD-43FC-82F5-B076ABC2D0CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DBAAEA0-97B4-41CB-83D1-F2C0ED86B709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0D02B6C3-35DB-4657-970B-B42564126393}"/>
+    <workbookView xWindow="28680" yWindow="-1290" windowWidth="29040" windowHeight="15720" xr2:uid="{0D02B6C3-35DB-4657-970B-B42564126393}"/>
   </bookViews>
   <sheets>
     <sheet name="User stories" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
   <si>
     <t>Story points</t>
   </si>
@@ -50,9 +49,6 @@
     <t>Priorité</t>
   </si>
   <si>
-    <t>Termps</t>
-  </si>
-  <si>
     <t>Complexite</t>
   </si>
   <si>
@@ -140,9 +136,6 @@
     <t>Tache_5.0.2 : créer un fieldset listant les boutons redirigeant pour chaque catégorie vers sa page dédiée</t>
   </si>
   <si>
-    <t>Tache_5.0.3 : créer un bouton "Supprimer le projet"</t>
-  </si>
-  <si>
     <t>Tache_5.0.4 : créer un bouton "Exigence" redirigeant vers la page dédiée aux exigences</t>
   </si>
   <si>
@@ -204,6 +197,39 @@
   </si>
   <si>
     <t>Tache_7.0.1 : créer une bdd Firebase</t>
+  </si>
+  <si>
+    <t>Technical story_8.0.0 : CRUD Projet</t>
+  </si>
+  <si>
+    <t>Tache_8.0.1 : créer un modèle "Projet"</t>
+  </si>
+  <si>
+    <t>Tache_8.0.2 : implémenter les méthodes CRUD du modèle "Projet"</t>
+  </si>
+  <si>
+    <t>Technical story_9.0.0 : Logs</t>
+  </si>
+  <si>
+    <t>Tache_9.0.1 : ajouter des logs à chaque opération CRUD</t>
+  </si>
+  <si>
+    <t>Tache_9.0.2 : ajouter des logs de navigation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tache_5.0.3 : créer un bouton "Supprimer le projet" + implémenter une fonction supprimant le projet et rédirigeant à la page précédente </t>
+  </si>
+  <si>
+    <t>Temps</t>
+  </si>
+  <si>
+    <t>Tache_5.0.1 : créer un bouton en icone sous forme de crayon pour chaque projet</t>
+  </si>
+  <si>
+    <t>Tache_5.0.2 : implémenter une fonction permettant de renommer le projet lorque le bouton de renommage est cliqué</t>
+  </si>
+  <si>
+    <t>User story_5.0.0 : Documentation "Application Web" : renommer un projet</t>
   </si>
 </sst>
 </file>
@@ -280,161 +306,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF7C80"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="22">
     <dxf>
       <fill>
         <patternFill>
@@ -495,6 +367,97 @@
       <fill>
         <patternFill>
           <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCCCCFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF7C80"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -502,8 +465,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCCCFF"/>
       <color rgb="FFFF7C80"/>
-      <color rgb="FFCCCCFF"/>
       <color rgb="FFCC99FF"/>
     </mruColors>
   </colors>
@@ -815,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BBA281-0ECC-4D67-B630-8EBDD4076F73}">
-  <dimension ref="A1:F46"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,14 +799,14 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
@@ -852,16 +815,16 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
@@ -873,21 +836,23 @@
         <v>0</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f>A2+1</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
@@ -899,12 +864,12 @@
         <v>0</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
@@ -916,12 +881,12 @@
         <v>0</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -933,12 +898,12 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -950,21 +915,20 @@
         <v>0</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <f>A4+1</f>
-        <v>3</v>
-      </c>
       <c r="B9" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -976,12 +940,12 @@
         <v>1</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="1">
         <v>0</v>
@@ -993,21 +957,20 @@
         <v>0</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <f>A9+1</f>
-        <v>4</v>
-      </c>
       <c r="B12" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -1019,12 +982,12 @@
         <v>1</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1">
         <v>0</v>
@@ -1036,12 +999,12 @@
         <v>0</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1">
         <v>0</v>
@@ -1053,21 +1016,20 @@
         <v>0</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <f>A12+1</f>
-        <v>5</v>
-      </c>
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -1079,12 +1041,12 @@
         <v>0</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1">
         <v>0</v>
@@ -1096,38 +1058,37 @@
         <v>1</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <f>A16+1</f>
-        <v>6</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>27</v>
+      <c r="F20" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -1139,21 +1100,20 @@
         <v>1</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <f xml:space="preserve"> A20+1</f>
+      <c r="B22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -1165,12 +1125,12 @@
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="1">
         <v>1</v>
@@ -1182,12 +1142,12 @@
         <v>1</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -1199,12 +1159,12 @@
         <v>0</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
@@ -1216,12 +1176,12 @@
         <v>0</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
@@ -1233,12 +1193,12 @@
         <v>0</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
@@ -1250,21 +1210,21 @@
         <v>0</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <f>A22 + 1</f>
-        <v>8</v>
+        <f>A53 + 1</f>
+        <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
@@ -1276,12 +1236,12 @@
         <v>0</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
@@ -1293,12 +1253,12 @@
         <v>0</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -1310,21 +1270,21 @@
         <v>0</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f xml:space="preserve"> A29 + 1</f>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -1336,12 +1296,12 @@
         <v>1</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C35" s="1">
         <v>1</v>
@@ -1353,12 +1313,12 @@
         <v>1</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
@@ -1370,12 +1330,12 @@
         <v>0</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
@@ -1387,21 +1347,21 @@
         <v>0</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f xml:space="preserve"> A33 + 1</f>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C39" s="1">
         <v>1</v>
@@ -1413,12 +1373,12 @@
         <v>2</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C40" s="1">
         <v>1</v>
@@ -1430,21 +1390,21 @@
         <v>2</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f xml:space="preserve"> A38 + 1</f>
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B42" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C42" s="1">
         <v>1</v>
@@ -1456,12 +1416,12 @@
         <v>2</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B43" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -1473,21 +1433,20 @@
         <v>1</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <f xml:space="preserve"> A9</f>
-        <v>3</v>
-      </c>
       <c r="B44" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B45" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
@@ -1499,12 +1458,12 @@
         <v>0</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B46" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C46" s="1">
         <v>1</v>
@@ -1516,45 +1475,185 @@
         <v>2</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="1">
+        <v>2</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>4</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <f xml:space="preserve"> A41+5</f>
+        <v>9</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F50" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A1048576">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="between">
       <formula>1</formula>
       <formula>5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="7" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="11" operator="between">
       <formula>6</formula>
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="Tache">
+    <cfRule type="containsText" dxfId="18" priority="8" operator="containsText" text="Tache">
       <formula>NOT(ISERROR(SEARCH("Tache",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="Technical story">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="Technical story">
       <formula>NOT(ISERROR(SEARCH("Technical story",B1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="6" operator="containsText" text="User story">
+    <cfRule type="containsText" dxfId="16" priority="10" operator="containsText" text="User story">
       <formula>NOT(ISERROR(SEARCH("User story",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F2:F1048576">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="Todo">
+    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="En cours">
+      <formula>NOT(ISERROR(SEARCH("En cours",F2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="Validé">
+      <formula>NOT(ISERROR(SEARCH("Validé",F2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Terminé">
+      <formula>NOT(ISERROR(SEARCH("Terminé",F2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Todo">
       <formula>NOT(ISERROR(SEARCH("Todo",F2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="12" operator="containsText" id="{3D0779EB-9E0D-46ED-89C1-D71869FA24B2}">
+          <x14:cfRule type="containsText" priority="16" operator="containsText" id="{3D0779EB-9E0D-46ED-89C1-D71869FA24B2}">
             <xm:f>NOT(ISERROR(SEARCH(Statut!$A$4,E1)))</xm:f>
             <xm:f>Statut!$A$4</xm:f>
             <x14:dxf>
@@ -1565,7 +1664,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="13" operator="containsText" id="{00DCAB57-507B-4E51-B67E-3E53D2A99461}">
+          <x14:cfRule type="containsText" priority="17" operator="containsText" id="{00DCAB57-507B-4E51-B67E-3E53D2A99461}">
             <xm:f>NOT(ISERROR(SEARCH(Statut!$A$3,E1)))</xm:f>
             <xm:f>Statut!$A$3</xm:f>
             <x14:dxf>
@@ -1576,7 +1675,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="14" operator="containsText" id="{1385A3BD-607F-4729-8B21-59ECDC200CE9}">
+          <x14:cfRule type="containsText" priority="18" operator="containsText" id="{1385A3BD-607F-4729-8B21-59ECDC200CE9}">
             <xm:f>NOT(ISERROR(SEARCH(Statut!$A$2,E1)))</xm:f>
             <xm:f>Statut!$A$2</xm:f>
             <x14:dxf>
@@ -1587,7 +1686,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <x14:cfRule type="containsText" priority="15" operator="containsText" id="{DD196320-0A19-4994-BC45-32ADD9229AEE}">
+          <x14:cfRule type="containsText" priority="19" operator="containsText" id="{DD196320-0A19-4994-BC45-32ADD9229AEE}">
             <xm:f>NOT(ISERROR(SEARCH(Statut!$A$1,E1)))</xm:f>
             <xm:f>Statut!$A$1</xm:f>
             <x14:dxf>
@@ -1628,22 +1727,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1653,17 +1752,6 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="containsText" priority="8" operator="containsText" id="{9EC93187-203C-40AE-9F1B-5E5886697058}">
-            <xm:f>NOT(ISERROR(SEARCH($A$1,A1)))</xm:f>
-            <xm:f>$A$1</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill>
-                  <bgColor theme="2"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <x14:cfRule type="containsText" priority="9" operator="containsText" id="{865BFEE1-60FF-4729-9C87-B0C0454E73E7}">
             <xm:f>NOT(ISERROR(SEARCH($A$1,A1)))</xm:f>
             <xm:f>$A$1</xm:f>
             <x14:dxf>

--- a/Documentation/User_story.xlsx
+++ b/Documentation/User_story.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub victor-dva\you-form-doc\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDA57E75-2B42-4D10-82C2-C10C5A64EED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25ACDAA-08E1-4321-89EA-A528C273C03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1290" windowWidth="29040" windowHeight="15720" xr2:uid="{0D02B6C3-35DB-4657-970B-B42564126393}"/>
   </bookViews>
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BBA281-0ECC-4D67-B630-8EBDD4076F73}">
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1216,7 +1216,7 @@
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <f>A53 + 1</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>35</v>
@@ -1276,7 +1276,7 @@
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <f xml:space="preserve"> A29 + 1</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>44</v>
@@ -1353,7 +1353,7 @@
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <f xml:space="preserve"> A33 + 1</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>43</v>
@@ -1396,7 +1396,7 @@
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <f xml:space="preserve"> A38 + 1</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>47</v>
@@ -1523,7 +1523,7 @@
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <f xml:space="preserve"> A41+5</f>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>56</v>
@@ -1567,9 +1567,6 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>1</v>
-      </c>
       <c r="B53" s="2" t="s">
         <v>63</v>
       </c>

--- a/Documentation/User_story.xlsx
+++ b/Documentation/User_story.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub victor-dva\you-form-doc\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25ACDAA-08E1-4321-89EA-A528C273C03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DDE545-D1BD-4630-A681-FC093BE4819F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1290" windowWidth="29040" windowHeight="15720" xr2:uid="{0D02B6C3-35DB-4657-970B-B42564126393}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="67">
   <si>
     <t>Story points</t>
   </si>
@@ -230,6 +230,15 @@
   </si>
   <si>
     <t>User story_5.0.0 : Documentation "Application Web" : renommer un projet</t>
+  </si>
+  <si>
+    <t>Technical story_10.0.0 : CRUD Exigence</t>
+  </si>
+  <si>
+    <t>Tache_10.0.1 : créer un modèle "Exigence"</t>
+  </si>
+  <si>
+    <t>Tache_10.0.2 : implémenter les méthodes CRUD du modèle "Exigence"</t>
   </si>
 </sst>
 </file>
@@ -778,10 +787,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BBA281-0ECC-4D67-B630-8EBDD4076F73}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,7 +1037,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1044,7 +1054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1061,7 +1071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
@@ -1078,7 +1088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
@@ -1086,7 +1096,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1103,7 +1113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>29</v>
       </c>
@@ -1111,7 +1121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>30</v>
       </c>
@@ -1128,7 +1138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>31</v>
       </c>
@@ -1145,7 +1155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>59</v>
       </c>
@@ -1162,7 +1172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>32</v>
       </c>
@@ -1179,7 +1189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
@@ -1196,7 +1206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>34</v>
       </c>
@@ -1213,16 +1223,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <f>A53 + 1</f>
-        <v>1</v>
-      </c>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
@@ -1236,10 +1245,10 @@
         <v>0</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
@@ -1253,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>38</v>
       </c>
@@ -1270,12 +1279,12 @@
         <v>0</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <f xml:space="preserve"> A29 + 1</f>
+        <f xml:space="preserve"> A56 + 1</f>
         <v>2</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1606,6 +1615,48 @@
       </c>
       <c r="F55" s="1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>1</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/User_story.xlsx
+++ b/Documentation/User_story.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub victor-dva\you-form-doc\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25ACDAA-08E1-4321-89EA-A528C273C03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DDEB5E-E3AE-492C-932A-C33A8F6B8E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-1290" windowWidth="29040" windowHeight="15720" xr2:uid="{0D02B6C3-35DB-4657-970B-B42564126393}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="71">
   <si>
     <t>Story points</t>
   </si>
@@ -230,6 +230,27 @@
   </si>
   <si>
     <t>User story_5.0.0 : Documentation "Application Web" : renommer un projet</t>
+  </si>
+  <si>
+    <t>Technical story_10.0.0 : CRUD Exigence</t>
+  </si>
+  <si>
+    <t>Tache_10.0.1 : créer un modèle "Exigence"</t>
+  </si>
+  <si>
+    <t>Tache_10.0.2 : implémenter les méthodes CRUD du modèle "Exigence"</t>
+  </si>
+  <si>
+    <t>Technical story_11.0.0 : Migration Prisma</t>
+  </si>
+  <si>
+    <t>Tache_11.0.1 : migrer vers la base de donnée Prisma</t>
+  </si>
+  <si>
+    <t>Tache_11.0.2 : adapter les méthodes CRUD</t>
+  </si>
+  <si>
+    <t>Tache_11.0.3 : supprimer les configurations Firebase</t>
   </si>
 </sst>
 </file>
@@ -778,10 +799,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94BBA281-0ECC-4D67-B630-8EBDD4076F73}">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,7 +1049,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>23</v>
       </c>
@@ -1044,7 +1066,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>24</v>
       </c>
@@ -1061,7 +1083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
         <v>25</v>
       </c>
@@ -1078,7 +1100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>26</v>
       </c>
@@ -1086,7 +1108,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
@@ -1103,7 +1125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>29</v>
       </c>
@@ -1111,7 +1133,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>30</v>
       </c>
@@ -1128,7 +1150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>31</v>
       </c>
@@ -1145,7 +1167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>59</v>
       </c>
@@ -1162,7 +1184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="2" t="s">
         <v>32</v>
       </c>
@@ -1179,7 +1201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" s="2" t="s">
         <v>33</v>
       </c>
@@ -1196,7 +1218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>34</v>
       </c>
@@ -1213,16 +1235,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <f>A53 + 1</f>
-        <v>1</v>
-      </c>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>36</v>
       </c>
@@ -1236,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>37</v>
       </c>
@@ -1253,10 +1274,10 @@
         <v>0</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>38</v>
       </c>
@@ -1270,12 +1291,12 @@
         <v>0</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <f xml:space="preserve"> A29 + 1</f>
+        <f xml:space="preserve"> A56 + 1</f>
         <v>2</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -1605,6 +1626,81 @@
         <v>1</v>
       </c>
       <c r="F55" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <f xml:space="preserve"> A59 + 1</f>
+        <v>1</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B62" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F62" s="1" t="s">
         <v>6</v>
       </c>
     </row>
